--- a/spliced/walkingToRunning/2023-04-03_16-59-39/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-59-39/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-5.392043113708496</v>
+        <v>-2.796573638916016</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.07962417602539</v>
+        <v>-10.2697286605835</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.189113616943359</v>
+        <v>2.567607164382935</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.508883299627843</v>
+        <v>0.3823793908064108</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.002422943165127922</v>
+        <v>0.1271628014236173</v>
       </c>
       <c r="H2" t="n">
-        <v>2.046859258132451</v>
+        <v>0.7923793438529929</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-5.657458782196045</v>
+        <v>0.8655490875244141</v>
       </c>
       <c r="D3" t="n">
-        <v>-14.74918365478516</v>
+        <v>-18.99405670166016</v>
       </c>
       <c r="E3" t="n">
-        <v>3.394452571868896</v>
+        <v>5.860441207885742</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6158849579813541</v>
+        <v>-0.654463132950649</v>
       </c>
       <c r="G3" t="n">
-        <v>2.116229075411831</v>
+        <v>0.1985160146708309</v>
       </c>
       <c r="H3" t="n">
-        <v>1.455997234551682</v>
+        <v>3.398013450712434</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.341409206390381</v>
+        <v>12.034010887146</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.322525978088381</v>
+        <v>-13.59659099578857</v>
       </c>
       <c r="E4" t="n">
-        <v>2.263803243637085</v>
+        <v>12.0263729095459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01971819700372118</v>
+        <v>-0.3379178534003359</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6282498050110437</v>
+        <v>0.9397114328064812</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3916948820751901</v>
+        <v>2.251024748018254</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.796573638916016</v>
+        <v>5.544707775115967</v>
       </c>
       <c r="D5" t="n">
-        <v>-10.2697286605835</v>
+        <v>-11.79852485656738</v>
       </c>
       <c r="E5" t="n">
-        <v>2.567607164382935</v>
+        <v>-1.972949981689453</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3823793908064108</v>
+        <v>0.9759882148647756</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1271628014236173</v>
+        <v>-0.4570092331052646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7923793438529929</v>
+        <v>-1.31463850730377</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8655490875244141</v>
+        <v>6.281956195831299</v>
       </c>
       <c r="D6" t="n">
-        <v>-18.99405670166016</v>
+        <v>-19.22240829467773</v>
       </c>
       <c r="E6" t="n">
-        <v>5.860441207885742</v>
+        <v>-3.653380393981934</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.654463132950649</v>
+        <v>0.7107792543491266</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1985160146708309</v>
+        <v>-2.305014370311596</v>
       </c>
       <c r="H6" t="n">
-        <v>3.398013450712434</v>
+        <v>-2.200793484742744</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.034010887146</v>
+        <v>-1.975251197814941</v>
       </c>
       <c r="D7" t="n">
-        <v>-13.59659099578857</v>
+        <v>-43.3292350769043</v>
       </c>
       <c r="E7" t="n">
-        <v>12.0263729095459</v>
+        <v>0.271059513092041</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3379178534003359</v>
+        <v>1.819485336698153</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9397114328064812</v>
+        <v>0.8139906653559265</v>
       </c>
       <c r="H7" t="n">
-        <v>2.251024748018254</v>
+        <v>-4.443760702123214</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.544707775115967</v>
+        <v>-20.38084411621094</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.79852485656738</v>
+        <v>-15.68858814239502</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.972949981689453</v>
+        <v>1.961378574371338</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9759882148647756</v>
+        <v>-0.05035778864519869</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4570092331052646</v>
+        <v>1.772313159173635</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.31463850730377</v>
+        <v>-4.182391558642067</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.281956195831299</v>
+        <v>10.76584243774414</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.22240829467773</v>
+        <v>-33.70746231079102</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.653380393981934</v>
+        <v>31.38712692260743</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7107792543491266</v>
+        <v>-4.364394300271125</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.305014370311596</v>
+        <v>-2.634685883971363</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.200793484742744</v>
+        <v>5.322240739592762</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.975251197814941</v>
+        <v>-27.7362232208252</v>
       </c>
       <c r="D10" t="n">
-        <v>-43.3292350769043</v>
+        <v>-0.916855812072754</v>
       </c>
       <c r="E10" t="n">
-        <v>0.271059513092041</v>
+        <v>-10.06494903564453</v>
       </c>
       <c r="F10" t="n">
-        <v>1.819485336698153</v>
+        <v>-6.08671497237609</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8139906653559265</v>
+        <v>2.640464704074256</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.443760702123214</v>
+        <v>8.124276500721788</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-20.38084411621094</v>
+        <v>8.33868408203125</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.68858814239502</v>
+        <v>-7.790350914001465</v>
       </c>
       <c r="E11" t="n">
-        <v>1.961378574371338</v>
+        <v>11.65683746337891</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05035778864519869</v>
+        <v>2.494929860399702</v>
       </c>
       <c r="G11" t="n">
-        <v>1.772313159173635</v>
+        <v>7.262385212313916</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.182391558642067</v>
+        <v>0.6411508452829229</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.76584243774414</v>
+        <v>-1.120648384094239</v>
       </c>
       <c r="D12" t="n">
-        <v>-33.70746231079102</v>
+        <v>-23.34181785583496</v>
       </c>
       <c r="E12" t="n">
-        <v>31.38712692260743</v>
+        <v>-21.7900619506836</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.364394300271125</v>
+        <v>5.578452347460839</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.634685883971363</v>
+        <v>-3.65870345949509</v>
       </c>
       <c r="H12" t="n">
-        <v>5.322240739592762</v>
+        <v>-2.740860200053031</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-27.7362232208252</v>
+        <v>33.84098815917969</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.916855812072754</v>
+        <v>-33.77373504638672</v>
       </c>
       <c r="E13" t="n">
-        <v>-10.06494903564453</v>
+        <v>-8.738304138183594</v>
       </c>
       <c r="F13" t="n">
-        <v>-6.08671497237609</v>
+        <v>5.107148140512828</v>
       </c>
       <c r="G13" t="n">
-        <v>2.640464704074256</v>
+        <v>-6.417216838576375</v>
       </c>
       <c r="H13" t="n">
-        <v>8.124276500721788</v>
+        <v>0.5648952454172127</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.33868408203125</v>
+        <v>-9.054259300231934</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.790350914001465</v>
+        <v>-1.461036801338196</v>
       </c>
       <c r="E14" t="n">
-        <v>11.65683746337891</v>
+        <v>6.970683097839356</v>
       </c>
       <c r="F14" t="n">
-        <v>2.494929860399702</v>
+        <v>2.179000979318631</v>
       </c>
       <c r="G14" t="n">
-        <v>7.262385212313916</v>
+        <v>-0.9147634414166442</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6411508452829229</v>
+        <v>-6.292253988029406</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.120648384094239</v>
+        <v>10.75043201446533</v>
       </c>
       <c r="D15" t="n">
-        <v>-23.34181785583496</v>
+        <v>-19.06211471557617</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.7900619506836</v>
+        <v>15.70715045928955</v>
       </c>
       <c r="F15" t="n">
-        <v>5.578452347460839</v>
+        <v>-4.380800012518604</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.65870345949509</v>
+        <v>-5.969521393950635</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.740860200053031</v>
+        <v>0.8675613487578511</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33.84098815917969</v>
+        <v>1.280778884887695</v>
       </c>
       <c r="D16" t="n">
-        <v>-33.77373504638672</v>
+        <v>-11.42607116699219</v>
       </c>
       <c r="E16" t="n">
-        <v>-8.738304138183594</v>
+        <v>-8.684724807739258</v>
       </c>
       <c r="F16" t="n">
-        <v>5.107148140512828</v>
+        <v>-4.858158437369363</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.417216838576375</v>
+        <v>3.663422577044154</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5648952454172127</v>
+        <v>4.786025135304881</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-9.054259300231934</v>
+        <v>36.76531219482422</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.461036801338196</v>
+        <v>-8.253963470458984</v>
       </c>
       <c r="E17" t="n">
-        <v>6.970683097839356</v>
+        <v>-22.78386306762696</v>
       </c>
       <c r="F17" t="n">
-        <v>2.179000979318631</v>
+        <v>-2.86569286016895</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9147634414166442</v>
+        <v>9.76977250463675</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.292253988029406</v>
+        <v>-0.04881703791199454</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.75043201446533</v>
+        <v>-36.61545944213867</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.06211471557617</v>
+        <v>-18.09431838989257</v>
       </c>
       <c r="E18" t="n">
-        <v>15.70715045928955</v>
+        <v>3.823569297790527</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.380800012518604</v>
+        <v>-3.519123984881036</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.969521393950635</v>
+        <v>7.458226036650824</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8675613487578511</v>
+        <v>-5.801270187837286</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.280778884887695</v>
+        <v>18.00795745849609</v>
       </c>
       <c r="D19" t="n">
-        <v>-11.42607116699219</v>
+        <v>-45.09830856323242</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.684724807739258</v>
+        <v>-8.873518943786621</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.858158437369363</v>
+        <v>2.29803731803496</v>
       </c>
       <c r="G19" t="n">
-        <v>3.663422577044154</v>
+        <v>-5.991696847046798</v>
       </c>
       <c r="H19" t="n">
-        <v>4.786025135304881</v>
+        <v>-5.515202137812292</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36.76531219482422</v>
+        <v>-20.05809783935547</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.253963470458984</v>
+        <v>0.3998336791992187</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.78386306762696</v>
+        <v>3.845695495605469</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.86569286016895</v>
+        <v>2.744500100300473</v>
       </c>
       <c r="G20" t="n">
-        <v>9.76977250463675</v>
+        <v>-0.9322929135791883</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.04881703791199454</v>
+        <v>-6.360266283544435</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-36.61545944213867</v>
+        <v>7.206372261047363</v>
       </c>
       <c r="D21" t="n">
-        <v>-18.09431838989257</v>
+        <v>-20.33248519897461</v>
       </c>
       <c r="E21" t="n">
-        <v>3.823569297790527</v>
+        <v>22.94344902038575</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.519123984881036</v>
+        <v>-5.222654512415387</v>
       </c>
       <c r="G21" t="n">
-        <v>7.458226036650824</v>
+        <v>-0.6178251758451783</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.801270187837286</v>
+        <v>4.528362251701193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-10.1914873123169</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-12.15236282348633</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-10.96279335021973</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.398936099406894</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6328901628238506</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6.700743228821124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>28.82599258422852</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.167891502380371</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.517308235168457</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.420953338994997</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.947797151136147</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.9126796104522215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-22.66286087036133</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-15.7267017364502</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.2342269420623779</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.05836680110209574</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8.935851176995778</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-8.390108103527448</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-11.30067539215088</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-54.94432067871094</v>
+      </c>
+      <c r="E25" t="n">
+        <v>17.55831718444824</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4.732191570142168</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-8.935019577985051</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8.243645213661406</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.29559326171875</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.657787322998047</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.186375617980957</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.33527006372728</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-10.98798226935694</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-9.769438461483361</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>20.14034080505371</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-19.13811683654785</v>
+      </c>
+      <c r="E27" t="n">
+        <v>23.86569976806641</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.9925953642860486</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.305789720325507</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.166530378201873</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>13.2857141494751</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-19.34296989440918</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.264841318130493</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.912634885748004</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.700535394758443</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.522403849981169</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-11.63338565826416</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.394529819488525</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.188831090927124</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-3.346227371255714</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.616383455186579</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.352327122114249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-38.69764709472656</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-13.45611763000488</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.173340797424316</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.400979183107231</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13.99426472249469</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.426351852441958</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9.269144058227541</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-44.79425811767578</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.448012948036194</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4026054789882916</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-6.858872019183412</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-4.158537519539816</v>
       </c>
     </row>
   </sheetData>
